--- a/loaded_influencer_data/bethneystuart01/bethneystuart01_video.xlsx
+++ b/loaded_influencer_data/bethneystuart01/bethneystuart01_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,16 +506,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@bethneystuart01/video/7486866762261122326</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@bethneystuart01/photo/7488431445170654466</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>164</v>
+        <v>380</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -528,14 +528,14 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Daily reminder that’s it’s okay to have bad runs 🙃🥹</t>
+          <t>Let’s see what April brings 🥹✨</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7.926829268292683</v>
+        <v>5.526315789473684</v>
       </c>
       <c r="I2" t="n">
-        <v>7.926829268292683</v>
+        <v>5.526315789473684</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -551,372 +551,371 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@bethneystuart01/video/7488045885486763266</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>533</v>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Let’s see what April brings 🥹✨</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3.939962476547842</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.939962476547842</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@bethneystuart01/video/7487630751740005654</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>410</v>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Let’s see what April brings 🥹✨</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5.121951219512195</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5.121951219512195</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7486789540615687446</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>289</v>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Got to say I’m quite impressed @Colgate UK 🧑‍🍳💋
-#colgatemaxwhite #fyp #teethwhitening #result</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10.72664359861592</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10.38062283737024</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.3460207612456748</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2025-03-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="B5" t="n">
+        <v>631</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Let’s see what April brings 🥹✨</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3.328050713153724</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.328050713153724</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7486197642364472598</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>358</v>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Replying to @gracie_fitxx
-Hopefully this should help everyone that is struggling to login in 🥰</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7.82122905027933</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7.541899441340782</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.2793296089385475</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2025-03-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="B6" t="n">
+        <v>466</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Let’s see what April brings 🥹✨</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4.506437768240343</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.506437768240343</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7485458020927900950</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>6231</v>
-      </c>
-      <c r="C5" t="n">
-        <v>122</v>
-      </c>
-      <c r="D5" t="n">
-        <v>71</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>29</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Replying to @Scarlett
-I’ve got an update: Pause to read the email 📧
-If your options are wrong you need to contact them to get it changed by the 31st of March before 5pm.</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3.097416145081047</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.957952174610817</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.139463970470229</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.465414861177981</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="B7" t="n">
+        <v>6315</v>
+      </c>
+      <c r="C7" t="n">
+        <v>53</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Let’s see what April brings 🥹✨</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.870942201108472</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8392715756136183</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.03167062549485353</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.1108471892319873</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7484725361863888150</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>397300</v>
-      </c>
-      <c r="C6" t="n">
-        <v>10400</v>
-      </c>
-      <c r="D6" t="n">
-        <v>278</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>411</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Update: you can now change your option online, they have unlocked it till the 31st of March before 5pm. 🥰</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2.687641580669519</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.617669267556003</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.06997231311351623</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.103448275862069</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="B8" t="n">
+        <v>399700</v>
+      </c>
+      <c r="C8" t="n">
+        <v>53</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Only managed 6km as it was so hot we was going INSANE ☀️🏃‍♀️</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.01376032024018014</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.01325994495871904</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0005003752814610958</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.001751313485113835</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7482461335842786582</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>626</v>
-      </c>
-      <c r="C7" t="n">
-        <v>37</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>The best Korean lip stains I have ever tried 🌸🌼🌺
-From @colorgram.official</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6.070287539936102</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.910543130990416</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1597444089456869</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2025-03-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="B9" t="n">
+        <v>648</v>
+      </c>
+      <c r="C9" t="n">
+        <v>53</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Only managed 6km as it was so hot we was going INSANE ☀️🏃‍♀️</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8.487654320987655</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8.179012345679013</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.308641975308642</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.080246913580247</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/photo/7479789628459846934</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>810</v>
-      </c>
-      <c r="C8" t="n">
-        <v>49</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>My store still had a lot of winter collections out so excited to see the spring collection…. When it comes 🌷🌼🌹</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6.049382716049383</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.049382716049383</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.2469135802469136</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2025-03-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@bethneystuart01/photo/7479389960974437654</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>493</v>
-      </c>
-      <c r="C9" t="n">
-        <v>27</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>5.476673427991886</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.476673427991886</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.2028397565922921</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2025-03-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@bethneystuart01/video/7479008956472462614</t>
-        </is>
-      </c>
       <c r="B10" t="n">
-        <v>615</v>
+        <v>832</v>
       </c>
       <c r="C10" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -925,967 +924,1114 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Didn’t release I needed a lip ink pen until this moment 💞🫦💄
+@rimmellondon and this is why you are my favourite brand for juicy lips 💋 ❤️</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4.927884615384615</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.807692307692308</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.1201923076923077</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@bethneystuart01/video/7486866762261122326</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>164</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Daily reminder that’s it’s okay to have bad runs 🙃🥹</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7.926829268292683</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.926829268292683</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@bethneystuart01/photo/7479389960974437654</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>493</v>
+      </c>
+      <c r="C12" t="n">
+        <v>27</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>5.476673427991886</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.476673427991886</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.2028397565922921</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2025-03-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@bethneystuart01/video/7479008956472462614</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>615</v>
+      </c>
+      <c r="C13" t="n">
+        <v>47</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>2</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>My easy messy bun 🤎🎀</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H13" t="n">
         <v>7.804878048780488</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I13" t="n">
         <v>7.642276422764227</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.1626016260162602</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L13" t="n">
         <v>0.3252032520325203</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/photo/7477635399565839638</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B14" t="n">
         <v>979</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C14" t="n">
         <v>69</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>2</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Short and sweet month ✨
 Sometimes a month will look like this and other months I will have so many parcels, with this being said I am so so grateful every time I get a parcel🥂</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H14" t="n">
         <v>7.048008171603677</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I14" t="n">
         <v>7.048008171603677</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>0.2042900919305414</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7477240660865666326</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B15" t="n">
         <v>547</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C15" t="n">
         <v>46</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>1</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>very chatty weekend glam🤎🥂</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H15" t="n">
         <v>8.592321755027422</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I15" t="n">
         <v>8.409506398537477</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.1828153564899452</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L15" t="n">
         <v>0.1828153564899452</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7476884155851164950</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B16" t="n">
         <v>963</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C16" t="n">
         <v>41</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D16" t="n">
         <v>6</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>2</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>very chatty weekend glam🤎🥂</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H16" t="n">
         <v>4.880581516095535</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I16" t="n">
         <v>4.257528556593977</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.6230529595015576</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L16" t="n">
         <v>0.2076843198338525</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7474709630241836310</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B17" t="n">
         <v>675</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C17" t="n">
         <v>61</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="inlineStr">
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>Weekend glam ✨🥂
 Haven’t don’t one of this videos for so long!</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H17" t="n">
         <v>9.037037037037036</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I17" t="n">
         <v>9.037037037037036</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7472424202759359766</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B18" t="n">
         <v>626</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C18" t="n">
         <v>48</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D18" t="n">
         <v>1</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>3</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>It’s a lash reset day 🖤
 Using @TATTI LASHES bond and seal and individual lashes in the mocha</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H18" t="n">
         <v>7.827476038338658</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I18" t="n">
         <v>7.667731629392971</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.1597444089456869</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L18" t="n">
         <v>0.4792332268370607</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7472076456886160662</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B19" t="n">
         <v>458</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C19" t="n">
         <v>40</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D19" t="n">
         <v>3</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>1</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>New launch alert ‼️
 @rimmellondon Thrill Seeker lip latex ❤️
 These give such a beautiful Matt finish - brb adding more to my basket 🛍️🛒</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H19" t="n">
         <v>9.388646288209607</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I19" t="n">
         <v>8.733624454148471</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.6550218340611353</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L19" t="n">
         <v>0.2183406113537118</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7471706274212744470</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B20" t="n">
         <v>489</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C20" t="n">
         <v>41</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D20" t="n">
         <v>2</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="inlineStr">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>My favourite mascara I’m using everyday at the moment 🖤✔️
 Linked in my TikTok shop 🛍️</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H20" t="n">
         <v>8.793456032719837</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I20" t="n">
         <v>8.384458077709612</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.408997955010225</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/photo/7471003644972829954</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B21" t="n">
         <v>424</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C21" t="n">
         <v>58</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D21" t="n">
         <v>7</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>1</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
         <v>15.33018867924528</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I21" t="n">
         <v>13.67924528301887</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>1.650943396226415</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L21" t="n">
         <v>0.2358490566037736</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7469845349629250848</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B22" t="n">
         <v>413</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C22" t="n">
         <v>58</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D22" t="n">
         <v>7</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>1</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
         <v>15.73849878934625</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I22" t="n">
         <v>14.04358353510896</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1.694915254237288</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L22" t="n">
         <v>0.2421307506053269</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7468979015307644192</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B23" t="n">
         <v>463</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C23" t="n">
         <v>18</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="inlineStr">
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>My favourite mascara at the moment for FULL lashes 💥
 Using @UKLASH volume boost mascara</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H23" t="n">
         <v>3.887688984881209</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I23" t="n">
         <v>3.887688984881209</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7467248728848551201</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>746</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>17</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D24" t="n">
         <v>3</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>6</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>My favourite mascara at the moment for FULL lashes 💥
 Using @UKLASH volume boost mascara</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>2.680965147453083</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I24" t="n">
         <v>2.278820375335121</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.4021447721179625</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L24" t="n">
         <v>0.8042895442359249</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-02-08</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/photo/7466837119223237921</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B25" t="n">
         <v>570</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C25" t="n">
         <v>67</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D25" t="n">
         <v>2</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>4</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>It’s a yes from me ✨
 Bronzed skin with @rimmellondon multi tasker better than filters.
 Adding more to my basket 🛒</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H25" t="n">
         <v>12.10526315789474</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I25" t="n">
         <v>11.75438596491228</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.3508771929824561</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L25" t="n">
         <v>0.7017543859649122</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7466778611467521313</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B26" t="n">
         <v>589</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C26" t="n">
         <v>63</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D26" t="n">
         <v>13</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>9</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Genuinely can’t believe this is how my 2025 has started 🤩
 So grateful for every single brand 💕✨</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H26" t="n">
         <v>12.90322580645161</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I26" t="n">
         <v>10.69609507640068</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>2.207130730050934</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L26" t="n">
         <v>1.528013582342954</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7466567018389589280</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B27" t="n">
         <v>564</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C27" t="n">
         <v>61</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D27" t="n">
         <v>1</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>2</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Say goodbye to saggy skin in 2025 with Bioheal BOH 3D lifting collection.
 ✨you can shop this on Amazon
 ( link in bio)</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H27" t="n">
         <v>10.99290780141844</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I27" t="n">
         <v>10.81560283687943</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.1773049645390071</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L27" t="n">
         <v>0.3546099290780142</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-02-02</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7466026365406481697</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B28" t="n">
         <v>513</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C28" t="n">
         <v>66</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D28" t="n">
         <v>3</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>4</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Weekend vlog 🎭💚
 Was such a chaotic day forgot I was going to vlog 😂</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H28" t="n">
         <v>13.45029239766082</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I28" t="n">
         <v>12.86549707602339</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.5847953216374269</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L28" t="n">
         <v>0.7797270955165692</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-02-02</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7463529238277147936</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B29" t="n">
         <v>456</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C29" t="n">
         <v>53</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D29" t="n">
         <v>4</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>4</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Weekend vlog 🎭💚
 Was such a chaotic day forgot I was going to vlog 😂</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H29" t="n">
         <v>12.5</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I29" t="n">
         <v>11.62280701754386</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.8771929824561403</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L29" t="n">
         <v>0.8771929824561403</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-01-31</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7462467388362018080</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B30" t="n">
         <v>564</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C30" t="n">
         <v>62</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D30" t="n">
         <v>1</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>4</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>My soft glam underpainting ✨
 @e.l.f. Cosmetics UK @Soap &amp; Glory @rimmellondon @maxfactor</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H30" t="n">
         <v>11.17021276595745</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I30" t="n">
         <v>10.99290780141844</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.1773049645390071</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L30" t="n">
         <v>0.7092198581560284</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-01-25</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7461734099116477728</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B31" t="n">
         <v>478</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C31" t="n">
         <v>56</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D31" t="n">
         <v>3</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>2</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Come with me to meet the experts for the London Marathon 2025 🏃🏼‍♀️👟</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H31" t="n">
         <v>12.34309623430962</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I31" t="n">
         <v>11.71548117154812</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.6276150627615062</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L31" t="n">
         <v>0.4184100418410042</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-01-22</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7461646530634599713</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B32" t="n">
         <v>399</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C32" t="n">
         <v>76</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D32" t="n">
         <v>3</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>2</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Sunday nighttime routine ✨🌙
 Using:
@@ -1893,912 +2039,912 @@
 @lorealparisuk - revitalift laser</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H32" t="n">
         <v>19.79949874686717</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I32" t="n">
         <v>19.04761904761905</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.7518796992481203</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L32" t="n">
         <v>0.5012531328320802</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7460974397743041825</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B33" t="n">
         <v>689</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C33" t="n">
         <v>34</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D33" t="n">
         <v>2</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>3</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Open my new jewellery from @Abbott Lyon 🧡✨
 Link in bio to shop 🌙</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H33" t="n">
         <v>5.224963715529753</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I33" t="n">
         <v>4.934687953555878</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.2902757619738752</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L33" t="n">
         <v>0.4354136429608128</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-01-20</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7458609838466075936</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B34" t="n">
         <v>573</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C34" t="n">
         <v>55</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D34" t="n">
         <v>3</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>3</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Gutted the quality went bad 🫠</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H34" t="n">
         <v>10.12216404886562</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I34" t="n">
         <v>9.598603839441536</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.5235602094240838</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L34" t="n">
         <v>0.5235602094240838</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-01-18</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7456873972773293345</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B35" t="n">
         <v>544</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C35" t="n">
         <v>65</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D35" t="n">
         <v>3</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>3</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Purple inspired makeup 🪻💜
 Products used ✨
 @Morphe Cosmetics eyeshadow palette</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H35" t="n">
         <v>12.5</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I35" t="n">
         <v>11.94852941176471</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.5514705882352942</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L35" t="n">
         <v>0.5514705882352942</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-01-11</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7456031020572314912</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B36" t="n">
         <v>448</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C36" t="n">
         <v>77</v>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>3</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Replying to @Mia Violet
 My eyebrow tutorial ✨
 Using @e.l.f. Cosmetics UK laminating gel, brow gel</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H36" t="n">
         <v>17.1875</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I36" t="n">
         <v>17.1875</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>0.6696428571428571</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-01-07</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/photo/7455364078551239968</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B37" t="n">
         <v>452</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C37" t="n">
         <v>47</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D37" t="n">
         <v>4</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>4</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Replying to @Mia Violet
 My eyebrow tutorial ✨
 Using @e.l.f. Cosmetics UK laminating gel, brow gel</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H37" t="n">
         <v>11.28318584070796</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I37" t="n">
         <v>10.39823008849558</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.8849557522123894</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L37" t="n">
         <v>0.8849557522123894</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-01-04</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7455294278017748256</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B38" t="n">
         <v>611</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C38" t="n">
         <v>53</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D38" t="n">
         <v>4</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="inlineStr">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>Best decision I made in 2024 was to post my videos and not care what people thought. 🫶🏼✨</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H38" t="n">
         <v>9.328968903436989</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I38" t="n">
         <v>8.674304418985269</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.6546644844517185</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-01-03</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7454898712800709921</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B39" t="n">
         <v>467</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C39" t="n">
         <v>85</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D39" t="n">
         <v>10</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>2</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Sometimes the loudest support comes from the strangers 🫶🏼✨</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H39" t="n">
         <v>20.34261241970022</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I39" t="n">
         <v>18.20128479657387</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>2.141327623126338</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L39" t="n">
         <v>0.4282655246252677</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-01-02</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7454274051675000096</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B40" t="n">
         <v>505</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C40" t="n">
         <v>71</v>
       </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="inlineStr">
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>Happy new years ✨🍾
 Thank you to everyone who has supported me over the last year! and all the amazing brands who have given me some amazing opportunities🫶🏼</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H40" t="n">
         <v>14.05940594059406</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I40" t="n">
         <v>14.05940594059406</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-01-01</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7453936454188698912</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B41" t="n">
         <v>1507</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C41" t="n">
         <v>51</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>1</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>My holy grail of hair dye 💆‍♀️✨
 @Garnier</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H41" t="n">
         <v>3.38420703384207</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I41" t="n">
         <v>3.38420703384207</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>0.06635700066357</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2024-12-31</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7453099199073127712</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B42" t="n">
         <v>423</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C42" t="n">
         <v>27</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D42" t="n">
         <v>2</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>4</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>New year new skin 🫧✨
 Using the revitalift laser Tri-peptides age correcting serum.
 Contains the power of 3 serums in 1 for visible results on key ageing signs.</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H42" t="n">
         <v>6.855791962174941</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I42" t="n">
         <v>6.382978723404255</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.4728132387706856</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L42" t="n">
         <v>0.9456264775413712</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2024-12-30</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7451977430014758177</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B43" t="n">
         <v>387</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C43" t="n">
         <v>59</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D43" t="n">
         <v>2</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>1</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>One step winter skincare ❄️🫧
 Using the @Cetaphil Skincare UK &amp; Ireland moisturising cream</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H43" t="n">
         <v>15.76227390180878</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I43" t="n">
         <v>15.24547803617571</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.516795865633075</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L43" t="n">
         <v>0.2583979328165375</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2024-12-27</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7451202637757746465</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B44" t="n">
         <v>369</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C44" t="n">
         <v>47</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D44" t="n">
         <v>1</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>2</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Christmas Eve skincare ✨🎄
 With @The Ordinary @Community X SEEN
 #theordinary</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H44" t="n">
         <v>13.00813008130081</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I44" t="n">
         <v>12.73712737127371</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.2710027100271002</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L44" t="n">
         <v>0.5420054200542005</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2024-12-24</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7449492821498776865</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B45" t="n">
         <v>457</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C45" t="n">
         <v>30</v>
       </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="inlineStr">
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>Christmas Eve skincare ✨🎄
 With @The Ordinary @Community X SEEN
 #theordinary</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H45" t="n">
         <v>6.564551422319474</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I45" t="n">
         <v>6.564551422319474</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2024-12-22</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/photo/7448744052238896416</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B46" t="n">
         <v>2086</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C46" t="n">
         <v>62</v>
       </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>2</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Full face of Sheglam makeup with ratings 🤍✨
 @SHEGLAM
 #SHEGLAM #sheglamhaul #fullfaceofsheglam</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H46" t="n">
         <v>2.972195589645254</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I46" t="n">
         <v>2.972195589645254</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>0.09587727708533077</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2024-12-18</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7448310265008999713</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B47" t="n">
         <v>436</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C47" t="n">
         <v>57</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D47" t="n">
         <v>4</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
         <v>13.99082568807339</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I47" t="n">
         <v>13.07339449541284</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.9174311926605505</v>
       </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2024-12-16</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7447988887793831200</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B48" t="n">
         <v>413</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C48" t="n">
         <v>50</v>
       </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="n">
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
         <v>12.10653753026634</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I48" t="n">
         <v>12.10653753026634</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2024-12-15</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7446520658701323553</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B49" t="n">
         <v>448</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C49" t="n">
         <v>39</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D49" t="n">
         <v>5</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>2</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>@e.l.f. Cosmetics glow Reviver lip oil is THAT lip oil ✨🤍</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H49" t="n">
         <v>9.821428571428571</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I49" t="n">
         <v>8.705357142857142</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>1.116071428571429</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L49" t="n">
         <v>0.4464285714285714</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2024-12-14</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7446127662633995553</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B50" t="n">
         <v>383</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C50" t="n">
         <v>53</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D50" t="n">
         <v>1</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>3</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>What Foundation and skin tint I would re purchase or not. 💄✨
 - @SHEGLAM
@@ -2807,180 +2953,78 @@
 -</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H50" t="n">
         <v>14.09921671018277</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I50" t="n">
         <v>13.83812010443864</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.2610966057441254</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L50" t="n">
         <v>0.7832898172323759</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2024-12-10</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@bethneystuart01/video/7445391353866980640</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B51" t="n">
         <v>574</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C51" t="n">
         <v>43</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D51" t="n">
         <v>1</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>1</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Get teady with me for christmas drinks at the pub 🎄🥂
 Nothing better than singing christmas songs and drinking wine.</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H51" t="n">
         <v>7.665505226480835</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I51" t="n">
         <v>7.491289198606271</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.1742160278745645</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L51" t="n">
         <v>0.1742160278745645</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2024-12-9</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@bethneystuart01/video/7443463413134642465</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>768</v>
-      </c>
-      <c r="C49" t="n">
-        <v>28</v>
-      </c>
-      <c r="D49" t="n">
-        <v>2</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Open my new @Abbott Lyon necklace ✨🤩
-Obsessed with this collection❣️
-#jewellery #prbox #opening</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>3.90625</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3.645833333333333</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.2604166666666666</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.1302083333333333</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2024-12-7</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@bethneystuart01/photo/7440422170200755488</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>531</v>
-      </c>
-      <c r="C50" t="n">
-        <v>61</v>
-      </c>
-      <c r="D50" t="n">
-        <v>4</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Get ready for my work christmas party with me 🎄✨</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>12.24105461393597</v>
-      </c>
-      <c r="I50" t="n">
-        <v>11.48775894538606</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.7532956685499058</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2024-12-2</t>
         </is>
       </c>
     </row>
